--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/T-SNE/stress_results_T-SNE.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/T-SNE/stress_results_T-SNE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,6 +1334,144 @@
         <v>60.19156603307376</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:35</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>40.78162014830423</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:35</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>32.85517692643104</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:35</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>33.60458283673321</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:35</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>35.3028277213472</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:35</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>37.06493320621639</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-10-07 20:11:35</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>42.36895803107342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
